--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/05.DoiMoiBH/DM210616_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/05.DoiMoiBH/DM210616_KimLong.xlsx
@@ -110,12 +110,6 @@
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
-    <t>Phí Trọng Thành</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
-  </si>
-  <si>
     <t>TP.KTTH</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                         Hà Nội, ngày 19 tháng 05 Năm 2021</t>
+  </si>
+  <si>
+    <t>TP.Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Đào Văn Thông</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,27 @@
     <xf numFmtId="3" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,27 +475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,7 +834,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -854,77 +854,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="45" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -932,11 +932,11 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -945,11 +945,11 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="8"/>
@@ -958,11 +958,11 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -974,11 +974,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1066,33 +1066,33 @@
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="42"/>
+      <c r="H16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
@@ -1145,32 +1145,40 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="43" t="s">
+      <c r="C22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="50"/>
       <c r="G22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="43"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="30"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -1182,12 +1190,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
